--- a/Data_EXCEL/intents_excel.xlsx
+++ b/Data_EXCEL/intents_excel.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD8A9B2-B327-4F63-9612-E54341779E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atilla\Documents\VSCode\EngineeringProjectII\Data_EXCEL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788EDDE5-3B37-44AD-9AB8-80B3FF9FC3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -130,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,19 +480,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="3" width="106.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -509,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -520,7 +525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -531,7 +536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -539,7 +544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -547,7 +552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -555,15 +560,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -571,54 +573,59 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
